--- a/biology/Zoologie/Gymnetis/Gymnetis.xlsx
+++ b/biology/Zoologie/Gymnetis/Gymnetis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnetis est un genre  d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de la sous-famille des Cetoniinae, de la tribu des Gymnetini.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>• Le genre a été décrit par l'entomologiste britannique William Sharp Macleay en 1819[1].
-Synonymie
-Gymnetoides (Martínez, 1949)
-Paragymnetis (Schürhoff, 1937)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• Le genre a été décrit par l'entomologiste britannique William Sharp Macleay en 1819.
+</t>
         </is>
       </c>
     </row>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gymnetoides (Martínez, 1949)
+Paragymnetis (Schürhoff, 1937)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gymnetis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gymnetis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Particularités anatomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Menton plus ou moins allongé, sinué en avant. Lobe externe des mâchoires trigone, oblique et pénicillé.
 Prothorax trapézoïde ; le lobe de sa base cachant en entier l'écusson.
@@ -554,33 +605,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Gymnetis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gymnetis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Gymnetis alboscripta (Janson, 1878)
 Gymnetis bajula (Olivier, 1789)
 Gymnetis bomplandi (Schaum, 1844)
